--- a/tests/test_examples/expected_files/results_MPC_example_2018_01_01__01_00_00.xlsx
+++ b/tests/test_examples/expected_files/results_MPC_example_2018_01_01__01_00_00.xlsx
@@ -467,10 +467,10 @@
         <v>43101.04166666666</v>
       </c>
       <c r="B2" t="n">
-        <v>3.591401373419737</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.591401373419737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         <v>43101.08333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>3.578729945419738</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.578729945419738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,10 +489,10 @@
         <v>43101.125</v>
       </c>
       <c r="B4" t="n">
-        <v>3.671358516419738</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.671358516419738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>3.748472802419738</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.748472802419738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B6" t="n">
-        <v>3.731972802419738</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.731972802419738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>43101.25</v>
       </c>
       <c r="B7" t="n">
-        <v>6.183846247138034</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.183846247138034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +533,10 @@
         <v>43101.29166666666</v>
       </c>
       <c r="B8" t="n">
-        <v>5.510190785456576</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.510190785456576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         <v>43101.33333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>5.888466523212527</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.888466523212527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -555,10 +555,10 @@
         <v>43101.375</v>
       </c>
       <c r="B10" t="n">
-        <v>4.229773259150527</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>4.229773259150527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -566,10 +566,10 @@
         <v>43101.41666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>2.634251035826668</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.634251035826668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -577,10 +577,10 @@
         <v>43101.45833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>4.160135978633296</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4.160135978633296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -588,10 +588,10 @@
         <v>43101.5</v>
       </c>
       <c r="B13" t="n">
-        <v>1.915266705803105</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.915266705803105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -599,10 +599,10 @@
         <v>43101.54166666666</v>
       </c>
       <c r="B14" t="n">
-        <v>1.653628106611708</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.653628106611708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -610,10 +610,10 @@
         <v>43101.58333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>2.136888497581953</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.136888497581953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -621,10 +621,10 @@
         <v>43101.625</v>
       </c>
       <c r="B16" t="n">
-        <v>3.182875273945124</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.182875273945124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -632,10 +632,10 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>3.152934824538038</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.152934824538038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -643,10 +643,10 @@
         <v>43101.70833333334</v>
       </c>
       <c r="B18" t="n">
-        <v>3.79867653077841</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.79867653077841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -654,10 +654,10 @@
         <v>43101.75</v>
       </c>
       <c r="B19" t="n">
-        <v>4.114883320276825</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.114883320276825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -665,10 +665,10 @@
         <v>43101.79166666666</v>
       </c>
       <c r="B20" t="n">
-        <v>10.27255626204747</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>10.27255626204747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -676,10 +676,10 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B21" t="n">
-        <v>13.58861899553566</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>13.58861899553566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -687,10 +687,10 @@
         <v>43101.875</v>
       </c>
       <c r="B22" t="n">
-        <v>5.86510814389271</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>5.86510814389271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -698,10 +698,10 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B23" t="n">
-        <v>3.797149447886644</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.797149447886644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -709,10 +709,10 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>3.2857352265283</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.2857352265283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -720,10 +720,10 @@
         <v>43102</v>
       </c>
       <c r="B25" t="n">
-        <v>3.335855306180541</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.335855306180541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -731,10 +731,10 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B26" t="n">
-        <v>3.51817486620988</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>3.51817486620988</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.30031425650822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4585465349483</v>
+        <v>2106.75</v>
       </c>
     </row>
     <row r="6">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2757.066666666667</v>
       </c>
     </row>
     <row r="7">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1000886894757029</v>
+        <v>22.37625</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.12844433900511</v>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.92620480846908</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -955,13 +955,13 @@
         <v>43101.04166666666</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.469628571</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.469628571</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         <v>43101.08333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.339959079450963</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.339959079450963</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>43101.125</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.549585714</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.549585714</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.6267</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.6267</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3.771141997591101</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.771141997591101</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>43101.25</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.202756082034924</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.202756082034924</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>43101.29166666666</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.529049211325205</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.529049211325205</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>43101.33333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5.907222702238744</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5.907222702238744</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1091,16 +1091,16 @@
         <v>43101.375</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3.144218023214221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004434173400726668</v>
+        <v>4.252761373395888</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004434173400726668</v>
+        <v>1.108543350181667</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.586883168290823</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0330909158605925</v>
+        <v>2.6858457968573</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0330909158605925</v>
+        <v>8.272728965148124</v>
       </c>
     </row>
     <row r="12">
@@ -1128,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>46.5148636963539</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2035856265144559</v>
+        <v>4.381542932260076</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2035856265144559</v>
+        <v>50.89640662861397</v>
       </c>
     </row>
     <row r="13">
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4.562246680843671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07179657458966061</v>
+        <v>13.38689696657148</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07179657458966061</v>
+        <v>17.94914364741515</v>
       </c>
     </row>
     <row r="14">
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.47183429359802</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03016705145839208</v>
+        <v>1.069928571</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03016705145839208</v>
+        <v>7.54176286459802</v>
       </c>
     </row>
     <row r="15">
@@ -1176,13 +1176,13 @@
         <v>43101.58333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>24.47528017713698</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>21.6502397029283</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.825040474208677</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>43101.625</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.212498410367769</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3.212498410367769</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.398457143</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.398457143</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>43101.70833333334</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.839342857</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.839342857</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>43101.75</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.005842857</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.005842857</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1261,13 +1261,13 @@
         <v>43101.79166666666</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.649585714000001</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.649585714000001</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1278,13 +1278,13 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>12.11352857</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>12.11352857</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>43101.875</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>13.33506003364008</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>13.33506003364008</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1312,13 +1312,13 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.689628571</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.689628571</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1329,13 +1329,13 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.813671429</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.813671429</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1346,13 +1346,13 @@
         <v>43102</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.577228571</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.577228571</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.549614286</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.549614286</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004434173400726668</v>
+        <v>1.108543350181667</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004434173400726668</v>
+        <v>1.108543350181667</v>
       </c>
     </row>
     <row r="11">
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0330909158605925</v>
+        <v>8.272728965148124</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0330909158605925</v>
+        <v>8.272728965148124</v>
       </c>
     </row>
     <row r="12">
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2035856265144559</v>
+        <v>50.89640662861397</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2035856265144559</v>
+        <v>50.89640662861397</v>
       </c>
     </row>
     <row r="13">
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07179657458966061</v>
+        <v>17.94914364741515</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07179657458966061</v>
+        <v>17.94914364741515</v>
       </c>
     </row>
     <row r="14">
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03016705145839208</v>
+        <v>7.54176286459802</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03016705145839208</v>
+        <v>7.54176286459802</v>
       </c>
     </row>
     <row r="15">
@@ -1807,16 +1807,16 @@
         <v>43101.04166666666</v>
       </c>
       <c r="B2" t="n">
-        <v>3.121772802419737</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0.469628571</v>
       </c>
       <c r="D2" t="n">
-        <v>3.591401373419737</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.469628571</v>
       </c>
     </row>
     <row r="3">
@@ -1824,16 +1824,16 @@
         <v>43101.08333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>3.121772802419738</v>
+        <v>5.883001936450963</v>
       </c>
       <c r="C3" t="n">
         <v>0.456957143</v>
       </c>
       <c r="D3" t="n">
-        <v>3.578729945419738</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6.339959079450963</v>
       </c>
     </row>
     <row r="4">
@@ -1841,16 +1841,16 @@
         <v>43101.125</v>
       </c>
       <c r="B4" t="n">
-        <v>3.121772802419738</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.549585714</v>
       </c>
       <c r="D4" t="n">
-        <v>3.671358516419738</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.549585714</v>
       </c>
     </row>
     <row r="5">
@@ -1858,16 +1858,16 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>3.121772802419738</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0.6267</v>
       </c>
       <c r="D5" t="n">
-        <v>3.748472802419738</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.6267</v>
       </c>
     </row>
     <row r="6">
@@ -1875,16 +1875,16 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B6" t="n">
-        <v>3.121772802419738</v>
+        <v>3.160941997591101</v>
       </c>
       <c r="C6" t="n">
         <v>0.6102</v>
       </c>
       <c r="D6" t="n">
-        <v>3.731972802419738</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.771141997591101</v>
       </c>
     </row>
     <row r="7">
@@ -1892,16 +1892,16 @@
         <v>43101.25</v>
       </c>
       <c r="B7" t="n">
-        <v>2.929617676138033</v>
+        <v>2.948527511034924</v>
       </c>
       <c r="C7" t="n">
         <v>3.254228571</v>
       </c>
       <c r="D7" t="n">
-        <v>6.183846247138034</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.202756082034924</v>
       </c>
     </row>
     <row r="8">
@@ -1909,16 +1909,16 @@
         <v>43101.29166666666</v>
       </c>
       <c r="B8" t="n">
-        <v>2.773705071456576</v>
+        <v>2.792563497325205</v>
       </c>
       <c r="C8" t="n">
         <v>2.736485714</v>
       </c>
       <c r="D8" t="n">
-        <v>5.510190785456576</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.529049211325205</v>
       </c>
     </row>
     <row r="9">
@@ -1926,16 +1926,16 @@
         <v>43101.33333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>2.432823666212527</v>
+        <v>2.451579845238745</v>
       </c>
       <c r="C9" t="n">
         <v>3.455642857</v>
       </c>
       <c r="D9" t="n">
-        <v>5.888466523212527</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>5.907222702238744</v>
       </c>
     </row>
     <row r="10">
@@ -1943,16 +1943,16 @@
         <v>43101.375</v>
       </c>
       <c r="B10" t="n">
-        <v>1.669936003551252</v>
+        <v>1.688489944395888</v>
       </c>
       <c r="C10" t="n">
         <v>2.564271429</v>
       </c>
       <c r="D10" t="n">
-        <v>4.229773259150527</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004434173400726668</v>
+        <v>4.252761373395888</v>
       </c>
     </row>
     <row r="11">
@@ -1960,16 +1960,16 @@
         <v>43101.41666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>1.37675623768726</v>
+        <v>1.3952600828573</v>
       </c>
       <c r="C11" t="n">
         <v>1.290585714</v>
       </c>
       <c r="D11" t="n">
-        <v>2.634251035826668</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0330909158605925</v>
+        <v>2.6858457968573</v>
       </c>
     </row>
     <row r="12">
@@ -1977,16 +1977,16 @@
         <v>43101.45833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06479303414775088</v>
+        <v>0.08261436126007536</v>
       </c>
       <c r="C12" t="n">
         <v>4.298928571</v>
       </c>
       <c r="D12" t="n">
-        <v>4.160135978633296</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2035856265144559</v>
+        <v>4.381542932260076</v>
       </c>
     </row>
     <row r="13">
@@ -1994,16 +1994,16 @@
         <v>43101.5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05122042339276561</v>
+        <v>11.45105410957148</v>
       </c>
       <c r="C13" t="n">
         <v>1.935842857</v>
       </c>
       <c r="D13" t="n">
-        <v>1.915266705803105</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07179657458966061</v>
+        <v>13.38689696657148</v>
       </c>
     </row>
     <row r="14">
@@ -2011,16 +2011,16 @@
         <v>43101.54166666666</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6138665870700997</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>1.069928571</v>
       </c>
       <c r="D14" t="n">
-        <v>1.653628106611708</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03016705145839208</v>
+        <v>1.069928571</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         <v>43101.58333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>1.078202783581953</v>
+        <v>1.766354760208677</v>
       </c>
       <c r="C15" t="n">
         <v>1.058685714</v>
       </c>
       <c r="D15" t="n">
-        <v>2.136888497581953</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.825040474208677</v>
       </c>
     </row>
     <row r="16">
@@ -2045,16 +2045,16 @@
         <v>43101.625</v>
       </c>
       <c r="B16" t="n">
-        <v>1.463118130945124</v>
+        <v>1.492741267367769</v>
       </c>
       <c r="C16" t="n">
         <v>1.719757143</v>
       </c>
       <c r="D16" t="n">
-        <v>3.182875273945124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.212498410367769</v>
       </c>
     </row>
     <row r="17">
@@ -2062,16 +2062,16 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>1.754477681538038</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1.398457143</v>
       </c>
       <c r="D17" t="n">
-        <v>3.152934824538038</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.398457143</v>
       </c>
     </row>
     <row r="18">
@@ -2079,16 +2079,16 @@
         <v>43101.70833333334</v>
       </c>
       <c r="B18" t="n">
-        <v>1.95933367377841</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1.839342857</v>
       </c>
       <c r="D18" t="n">
-        <v>3.79867653077841</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.839342857</v>
       </c>
     </row>
     <row r="19">
@@ -2096,16 +2096,16 @@
         <v>43101.75</v>
       </c>
       <c r="B19" t="n">
-        <v>2.109040463276825</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>2.005842857</v>
       </c>
       <c r="D19" t="n">
-        <v>4.114883320276825</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.005842857</v>
       </c>
     </row>
     <row r="20">
@@ -2113,16 +2113,16 @@
         <v>43101.79166666666</v>
       </c>
       <c r="B20" t="n">
-        <v>1.622970548047471</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>8.649585714000001</v>
       </c>
       <c r="D20" t="n">
-        <v>10.27255626204747</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.649585714000001</v>
       </c>
     </row>
     <row r="21">
@@ -2130,16 +2130,16 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B21" t="n">
-        <v>1.475090425535664</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>12.11352857</v>
       </c>
       <c r="D21" t="n">
-        <v>13.58861899553566</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>12.11352857</v>
       </c>
     </row>
     <row r="22">
@@ -2147,16 +2147,16 @@
         <v>43101.875</v>
       </c>
       <c r="B22" t="n">
-        <v>1.70519385789271</v>
+        <v>9.175145747640082</v>
       </c>
       <c r="C22" t="n">
         <v>4.159914286</v>
       </c>
       <c r="D22" t="n">
-        <v>5.86510814389271</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>13.33506003364008</v>
       </c>
     </row>
     <row r="23">
@@ -2164,16 +2164,16 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B23" t="n">
-        <v>2.107520876886644</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>1.689628571</v>
       </c>
       <c r="D23" t="n">
-        <v>3.797149447886644</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.689628571</v>
       </c>
     </row>
     <row r="24">
@@ -2181,16 +2181,16 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>2.4720637975283</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0.813671429</v>
       </c>
       <c r="D24" t="n">
-        <v>3.2857352265283</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.813671429</v>
       </c>
     </row>
     <row r="25">
@@ -2198,16 +2198,16 @@
         <v>43102</v>
       </c>
       <c r="B25" t="n">
-        <v>2.758626735180541</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0.577228571</v>
       </c>
       <c r="D25" t="n">
-        <v>3.335855306180541</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.577228571</v>
       </c>
     </row>
     <row r="26">
@@ -2215,16 +2215,16 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B26" t="n">
-        <v>2.96856058020988</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0.549614286</v>
       </c>
       <c r="D26" t="n">
-        <v>3.51817486620988</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.549614286</v>
       </c>
     </row>
   </sheetData>
@@ -2273,16 +2273,16 @@
         <v>43101.04166666666</v>
       </c>
       <c r="B2" t="n">
-        <v>13.19480610264095</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.16625478</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02855132264094706</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1544389711898908</v>
+        <v>14.97975004356057</v>
       </c>
     </row>
     <row r="3">
@@ -2290,16 +2290,16 @@
         <v>43101.08333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>13.23081187606918</v>
+        <v>24.93355436609632</v>
       </c>
       <c r="C3" t="n">
         <v>13.17307588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05773599606918067</v>
+        <v>11.76047848609632</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211647340449451</v>
+        <v>26.64435025980561</v>
       </c>
     </row>
     <row r="4">
@@ -2307,16 +2307,16 @@
         <v>43101.125</v>
       </c>
       <c r="B4" t="n">
-        <v>13.19480610264095</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.17181806</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02298804264094976</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2340490777863205</v>
+        <v>13.36468957599664</v>
       </c>
     </row>
     <row r="5">
@@ -2324,16 +2324,16 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>13.12298019886559</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>13.12298019886559</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08595212393670987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2341,13 +2341,13 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B6" t="n">
-        <v>13.23081187606918</v>
+        <v>13.39682019424264</v>
       </c>
       <c r="C6" t="n">
-        <v>13.23081187606918</v>
+        <v>13.31630662</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2358,13 +2358,13 @@
         <v>43101.25</v>
       </c>
       <c r="B7" t="n">
-        <v>12.41641297910752</v>
+        <v>12.49655733424264</v>
       </c>
       <c r="C7" t="n">
         <v>12.41604376</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>43101.29166666666</v>
       </c>
       <c r="B8" t="n">
-        <v>11.78766487910752</v>
+        <v>11.86780923424264</v>
       </c>
       <c r="C8" t="n">
         <v>11.78729566</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2392,13 +2392,13 @@
         <v>43101.33333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>10.39535203910752</v>
+        <v>10.47549639424264</v>
       </c>
       <c r="C9" t="n">
         <v>10.39498282</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>43101.375</v>
       </c>
       <c r="B10" t="n">
-        <v>7.21334325910752</v>
+        <v>7.293487614242636</v>
       </c>
       <c r="C10" t="n">
         <v>7.21297404</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -2426,13 +2426,13 @@
         <v>43101.41666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>5.96304388810752</v>
+        <v>6.043188243242636</v>
       </c>
       <c r="C11" t="n">
         <v>5.962674669</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2443,13 +2443,13 @@
         <v>43101.45833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2913809901075197</v>
+        <v>0.3715253452426365</v>
       </c>
       <c r="C12" t="n">
         <v>0.291011771</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.0805135742426365</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2460,16 +2460,16 @@
         <v>43101.5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2340490777863205</v>
+        <v>52.325</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2340490777863205</v>
+        <v>52.325</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2336798586788007</v>
+        <v>52.24448642575736</v>
       </c>
     </row>
     <row r="14">
@@ -2477,16 +2477,16 @@
         <v>43101.54166666666</v>
       </c>
       <c r="B14" t="n">
-        <v>2.775372927532761</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.775372927532761</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>49.10231151640725</v>
       </c>
     </row>
     <row r="15">
@@ -2494,16 +2494,16 @@
         <v>43101.58333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>4.88768781478632</v>
+        <v>8.007204924272527</v>
       </c>
       <c r="C15" t="n">
         <v>4.653638737</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2340490777863205</v>
+        <v>3.353566187272527</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2340490777863205</v>
+        <v>52.325</v>
       </c>
     </row>
     <row r="16">
@@ -2511,16 +2511,16 @@
         <v>43101.625</v>
       </c>
       <c r="B16" t="n">
-        <v>6.597357856715204</v>
+        <v>6.730931781940396</v>
       </c>
       <c r="C16" t="n">
         <v>6.596748574</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.1341832079403957</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2340490777863205</v>
+        <v>52.325</v>
       </c>
     </row>
     <row r="17">
@@ -2528,16 +2528,16 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>7.848055519715204</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.847446237</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2340490777863205</v>
+        <v>44.3433705550596</v>
       </c>
     </row>
     <row r="18">
@@ -2545,16 +2545,16 @@
         <v>43101.70833333334</v>
       </c>
       <c r="B18" t="n">
-        <v>8.671064524928882</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>8.671064524928882</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>35.31286976631884</v>
       </c>
     </row>
     <row r="19">
@@ -2562,16 +2562,16 @@
         <v>43101.75</v>
       </c>
       <c r="B19" t="n">
-        <v>9.358647686107519</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9.358278467</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>25.83785739473363</v>
       </c>
     </row>
     <row r="20">
@@ -2579,16 +2579,16 @@
         <v>43101.79166666666</v>
       </c>
       <c r="B20" t="n">
-        <v>7.24042269410752</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.240053475</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>18.49078851382524</v>
       </c>
     </row>
     <row r="21">
@@ -2596,16 +2596,16 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B21" t="n">
-        <v>6.580697478311078</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>6.579958661</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>11.81135031878672</v>
       </c>
     </row>
     <row r="22">
@@ -2613,16 +2613,16 @@
         <v>43101.875</v>
       </c>
       <c r="B22" t="n">
-        <v>7.60723866578632</v>
+        <v>40.93230993802007</v>
       </c>
       <c r="C22" t="n">
         <v>7.373189588</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2340490777863205</v>
+        <v>33.55912035002007</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2340490777863205</v>
+        <v>45.27784221935946</v>
       </c>
     </row>
     <row r="23">
@@ -2630,16 +2630,16 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B23" t="n">
-        <v>9.326869514715204</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.326260231999999</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2340490777863205</v>
+        <v>35.82462703315431</v>
       </c>
     </row>
     <row r="24">
@@ -2647,16 +2647,16 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>10.9108461027152</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>10.91023682</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2340490777863205</v>
+        <v>24.79713140030244</v>
       </c>
     </row>
     <row r="25">
@@ -2664,16 +2664,16 @@
         <v>43102</v>
       </c>
       <c r="B25" t="n">
-        <v>11.8516254527152</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>11.85101617</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2340490777863205</v>
+        <v>12.8401672946836</v>
       </c>
     </row>
     <row r="26">
@@ -2681,10 +2681,10 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B26" t="n">
-        <v>12.51304379492888</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>12.51304379492888</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>43101.04166666666</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>13.16625478</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>13.16625478</v>
@@ -2988,10 +2988,10 @@
         <v>43101.125</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>13.17181806</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>13.17181806</v>
@@ -3002,10 +3002,10 @@
         <v>43101.16666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>13.12298019886559</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1474876711344084</v>
+        <v>13.27046787</v>
       </c>
       <c r="D5" t="n">
         <v>13.27046787</v>
@@ -3016,10 +3016,10 @@
         <v>43101.20833333334</v>
       </c>
       <c r="B6" t="n">
-        <v>13.23081187606918</v>
+        <v>13.31630662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08549474393081979</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>13.31630662</v>
@@ -3128,10 +3128,10 @@
         <v>43101.54166666666</v>
       </c>
       <c r="B14" t="n">
-        <v>2.775372927532761</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2327013564672388</v>
+        <v>3.008074284</v>
       </c>
       <c r="D14" t="n">
         <v>3.008074284</v>
@@ -3170,10 +3170,10 @@
         <v>43101.66666666666</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>7.847446237</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>7.847446237</v>
@@ -3184,10 +3184,10 @@
         <v>43101.70833333334</v>
       </c>
       <c r="B18" t="n">
-        <v>8.671064524928882</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2334397950711163</v>
+        <v>8.904504319999999</v>
       </c>
       <c r="D18" t="n">
         <v>8.904504319999999</v>
@@ -3198,10 +3198,10 @@
         <v>43101.75</v>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>9.358278467</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>9.358278467</v>
@@ -3212,10 +3212,10 @@
         <v>43101.79166666666</v>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>7.240053475</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>7.240053475</v>
@@ -3226,10 +3226,10 @@
         <v>43101.83333333334</v>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
         <v>6.579958661</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>6.579958661</v>
@@ -3254,10 +3254,10 @@
         <v>43101.91666666666</v>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>9.326260231999999</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>9.326260231999999</v>
@@ -3268,10 +3268,10 @@
         <v>43101.95833333334</v>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
         <v>10.91023682</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>10.91023682</v>
@@ -3282,10 +3282,10 @@
         <v>43102</v>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
         <v>11.85101617</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>11.85101617</v>
@@ -3296,10 +3296,10 @@
         <v>43102.04166666666</v>
       </c>
       <c r="B26" t="n">
-        <v>12.51304379492888</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2334397950711163</v>
+        <v>12.74648359</v>
       </c>
       <c r="D26" t="n">
         <v>12.74648359</v>
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.55157795857587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3775.491916262109</v>
+        <v>58998.22712595509</v>
       </c>
     </row>
     <row r="5">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>-7.630746078781325</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_examples/expected_files/results_MPC_example_2018_01_01__01_00_00.xlsx
+++ b/tests/test_examples/expected_files/results_MPC_example_2018_01_01__01_00_00.xlsx
@@ -15,10 +15,11 @@
     <sheet name="dhwSourceBus__Building1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="spaceHeatingBus__Building1" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="shDemandBus__Building1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="costs__Building1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="env_impacts__Building1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="capStorages__Building1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="capTransformers__Building1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="storage_content__Building1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="costs__Building1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="env_impacts__Building1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="capStorages__Building1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="capTransformers__Building1" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -748,6 +749,70 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>electricityResource__Building1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>naturalGasResource__Building1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Investment</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58998.22712595509</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-7.630746078781325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -804,21 +869,21 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>electricalStorage__Building1</t>
+          <t>shStorage__Building1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2757.066666666667</v>
+        <v>22.37625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>shStorage__Building1</t>
+          <t>electricalStorage__Building1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.37625</v>
+        <v>2757.066666666667</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -848,21 +913,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>electricalStorage__Building1</t>
+          <t>shStorage__Building1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>shStorage__Building1</t>
+          <t>electricalStorage__Building1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,10 +1156,10 @@
         <v>43101.375</v>
       </c>
       <c r="B10" t="n">
-        <v>3.144218023214221</v>
+        <v>24.79445772614253</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>21.6502397029283</v>
       </c>
       <c r="D10" t="n">
         <v>4.252761373395888</v>
@@ -1176,10 +1241,10 @@
         <v>43101.58333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>24.47528017713698</v>
+        <v>2.825040474208677</v>
       </c>
       <c r="C15" t="n">
-        <v>21.6502397029283</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>2.825040474208677</v>
@@ -2238,7 +2303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2262,11 +2327,6 @@
           <t>(('shSourceBus__Building1', 'shStorage__Building1'), 'flow')</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>storage_content</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -2281,9 +2341,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>14.97975004356057</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -2298,9 +2355,6 @@
       <c r="D3" t="n">
         <v>11.76047848609632</v>
       </c>
-      <c r="E3" t="n">
-        <v>26.64435025980561</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -2315,9 +2369,6 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>13.36468957599664</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -2332,9 +2383,6 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -2349,9 +2397,6 @@
       <c r="D6" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -2366,9 +2411,6 @@
       <c r="D7" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -2383,9 +2425,6 @@
       <c r="D8" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -2400,9 +2439,6 @@
       <c r="D9" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -2417,9 +2453,6 @@
       <c r="D10" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -2434,9 +2467,6 @@
       <c r="D11" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -2451,9 +2481,6 @@
       <c r="D12" t="n">
         <v>0.0805135742426365</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2468,9 +2495,6 @@
       <c r="D13" t="n">
         <v>52.325</v>
       </c>
-      <c r="E13" t="n">
-        <v>52.24448642575736</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2485,9 +2509,6 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>49.10231151640725</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2502,9 +2523,6 @@
       <c r="D15" t="n">
         <v>3.353566187272527</v>
       </c>
-      <c r="E15" t="n">
-        <v>52.325</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -2519,9 +2537,6 @@
       <c r="D16" t="n">
         <v>0.1341832079403957</v>
       </c>
-      <c r="E16" t="n">
-        <v>52.325</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -2536,9 +2551,6 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
-        <v>44.3433705550596</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -2553,9 +2565,6 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
-        <v>35.31286976631884</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -2570,9 +2579,6 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
-        <v>25.83785739473363</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -2587,9 +2593,6 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>18.49078851382524</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -2604,9 +2607,6 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>11.81135031878672</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -2621,9 +2621,6 @@
       <c r="D22" t="n">
         <v>33.55912035002007</v>
       </c>
-      <c r="E22" t="n">
-        <v>45.27784221935946</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -2638,9 +2635,6 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="n">
-        <v>35.82462703315431</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2655,9 +2649,6 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="n">
-        <v>24.79713140030244</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2672,9 +2663,6 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="n">
-        <v>12.8401672946836</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2687,9 +2675,6 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3622,7 +3607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3631,48 +3616,290 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>shStorage__B001_storage_content</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>electricalStorage__B001_storage_content</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>electricityResource__Building1</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>43101.04166666666</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14.97975004356057</v>
+      </c>
+      <c r="C2" t="n">
+        <v>119.4539202662791</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>naturalGasResource__Building1</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>43101.08333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>26.64435025980561</v>
+      </c>
+      <c r="C3" t="n">
+        <v>112.081874825057</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Investment</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>43101.125</v>
       </c>
       <c r="B4" t="n">
-        <v>58998.22712595509</v>
+        <v>13.36468957599664</v>
+      </c>
+      <c r="C4" t="n">
+        <v>111.4428216692431</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Feed-in</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>43101.16666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.630746078781325</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>110.7141007390105</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>43101.20833333334</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>106.3290519046023</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>43101.25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>99.11654483246862</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>43101.29166666666</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>92.68741784255559</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>43101.33333333334</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>85.81855423530124</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>43101.375</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>56.98778943746109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>43101.41666666666</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>56.98778943746109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>43101.45833333334</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>56.98778943746109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>43101.5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>52.24448642575736</v>
+      </c>
+      <c r="C13" t="n">
+        <v>56.98778943746109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>43101.54166666666</v>
+      </c>
+      <c r="B14" t="n">
+        <v>49.10231151640725</v>
+      </c>
+      <c r="C14" t="n">
+        <v>56.98778943746109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43101.58333333334</v>
+      </c>
+      <c r="B15" t="n">
+        <v>52.325</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53.70285865349751</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43101.625</v>
+      </c>
+      <c r="B16" t="n">
+        <v>52.325</v>
+      </c>
+      <c r="C16" t="n">
+        <v>49.96739538562801</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43101.66666666666</v>
+      </c>
+      <c r="B17" t="n">
+        <v>44.3433705550596</v>
+      </c>
+      <c r="C17" t="n">
+        <v>48.34128242865126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43101.70833333334</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35.31286976631884</v>
+      </c>
+      <c r="C18" t="n">
+        <v>46.20251166469777</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43101.75</v>
+      </c>
+      <c r="B19" t="n">
+        <v>25.83785739473363</v>
+      </c>
+      <c r="C19" t="n">
+        <v>43.87013624958149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43101.79166666666</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18.49078851382524</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33.81247844260475</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43101.83333333334</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11.81135031878672</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19.72698010539545</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43101.875</v>
+      </c>
+      <c r="B22" t="n">
+        <v>45.27784221935946</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.221096345348838</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43101.91666666666</v>
+      </c>
+      <c r="B23" t="n">
+        <v>35.82462703315431</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.256411960465116</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43101.95833333334</v>
+      </c>
+      <c r="B24" t="n">
+        <v>24.79713140030244</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.310282391860465</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43102</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12.8401672946836</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6390863790697674</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43102.04166666666</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
